--- a/Machine learning/Homework/Alzheimer Classification/6614450042_Report Alzhemer_Classification.xlsx
+++ b/Machine learning/Homework/Alzheimer Classification/6614450042_Report Alzhemer_Classification.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/GitHub/Python-For-Data-Science/Machine learning/Homework/Alzheimer Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B220BCAC-7C5E-44BB-96E7-498313F521E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF0465-3C28-4344-A108-2DEFD7AA703B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BDC30C81-DD47-45A5-9C52-331CEFC4DFD1}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{BDC30C81-DD47-45A5-9C52-331CEFC4DFD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alzhemer_Classification" sheetId="2" r:id="rId1"/>
+    <sheet name="non-resample" sheetId="2" r:id="rId1"/>
+    <sheet name="resample" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="17">
   <si>
     <t>Decision tree</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>Neural Network
 hidden_layer_sizes=(64, 32), max_iter=1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNN (K=1 -&gt; Acc 0.81) </t>
   </si>
 </sst>
 </file>
@@ -481,26 +484,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5325498-52E2-499F-A1D6-7B4C13CC3B31}">
   <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -547,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
@@ -598,7 +601,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -654,7 +657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -693,7 +696,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -750,7 +753,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -806,10 +809,10 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -845,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -886,7 +889,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -927,7 +930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -956,7 +959,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>8</v>
       </c>
@@ -988,7 +991,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -1020,10 +1023,10 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>9</v>
       </c>
@@ -1232,6 +1235,773 @@
       </c>
       <c r="O21">
         <v>1181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58D06A3-5F7F-AA4D-A774-40FFFBC7C637}">
+  <dimension ref="A2:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+      <c r="G3">
+        <v>0.88</v>
+      </c>
+      <c r="H3">
+        <v>0.89</v>
+      </c>
+      <c r="I3">
+        <v>1118</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.89</v>
+      </c>
+      <c r="M3">
+        <v>0.89</v>
+      </c>
+      <c r="N3">
+        <v>0.89</v>
+      </c>
+      <c r="O3">
+        <v>1118</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.91</v>
+      </c>
+      <c r="S3">
+        <v>0.75</v>
+      </c>
+      <c r="T3">
+        <v>0.82</v>
+      </c>
+      <c r="U3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.89</v>
+      </c>
+      <c r="G4">
+        <v>0.91</v>
+      </c>
+      <c r="H4">
+        <v>0.9</v>
+      </c>
+      <c r="I4">
+        <v>1123</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.89</v>
+      </c>
+      <c r="M4">
+        <v>0.89</v>
+      </c>
+      <c r="N4">
+        <v>0.89</v>
+      </c>
+      <c r="O4">
+        <v>1123</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.79</v>
+      </c>
+      <c r="S4">
+        <v>0.93</v>
+      </c>
+      <c r="T4">
+        <v>0.85</v>
+      </c>
+      <c r="U4">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.89513609995537702</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.9</v>
+      </c>
+      <c r="I5">
+        <v>2241</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.89</v>
+      </c>
+      <c r="O5">
+        <v>2241</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0.84</v>
+      </c>
+      <c r="U5">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.89112003569834897</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0.9</v>
+      </c>
+      <c r="G6">
+        <v>0.9</v>
+      </c>
+      <c r="H6">
+        <v>0.9</v>
+      </c>
+      <c r="I6">
+        <v>2241</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>0.89</v>
+      </c>
+      <c r="M6">
+        <v>0.89</v>
+      </c>
+      <c r="N6">
+        <v>0.89</v>
+      </c>
+      <c r="O6">
+        <v>2241</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>0.84</v>
+      </c>
+      <c r="S6">
+        <v>0.84</v>
+      </c>
+      <c r="T6">
+        <v>0.84</v>
+      </c>
+      <c r="U6">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.89171608953510595</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.838018741633199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <v>2241</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>0.89</v>
+      </c>
+      <c r="M7">
+        <v>0.89</v>
+      </c>
+      <c r="N7">
+        <v>0.89</v>
+      </c>
+      <c r="O7">
+        <v>2241</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>0.84</v>
+      </c>
+      <c r="S7">
+        <v>0.84</v>
+      </c>
+      <c r="T7">
+        <v>0.84</v>
+      </c>
+      <c r="U7">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.94</v>
+      </c>
+      <c r="G10">
+        <v>0.84</v>
+      </c>
+      <c r="H10">
+        <v>0.89</v>
+      </c>
+      <c r="I10">
+        <v>1118</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.93</v>
+      </c>
+      <c r="M10">
+        <v>0.81</v>
+      </c>
+      <c r="N10">
+        <v>0.87</v>
+      </c>
+      <c r="O10">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.89201249442213204</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.85</v>
+      </c>
+      <c r="G11">
+        <v>0.95</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>1123</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="O11">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.87416331994645202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.89</v>
+      </c>
+      <c r="I12">
+        <v>2241</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0.87</v>
+      </c>
+      <c r="O12">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="G13">
+        <v>0.89</v>
+      </c>
+      <c r="H13">
+        <v>0.89</v>
+      </c>
+      <c r="I13">
+        <v>2241</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>0.88</v>
+      </c>
+      <c r="M13">
+        <v>0.87</v>
+      </c>
+      <c r="N13">
+        <v>0.87</v>
+      </c>
+      <c r="O13">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14">
+        <v>0.89</v>
+      </c>
+      <c r="H14">
+        <v>0.89</v>
+      </c>
+      <c r="I14">
+        <v>2241</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>0.88</v>
+      </c>
+      <c r="M14">
+        <v>0.87</v>
+      </c>
+      <c r="N14">
+        <v>0.87</v>
+      </c>
+      <c r="O14">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.91</v>
+      </c>
+      <c r="G17">
+        <v>0.88</v>
+      </c>
+      <c r="H17">
+        <v>0.9</v>
+      </c>
+      <c r="I17">
+        <v>1118</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.91</v>
+      </c>
+      <c r="M17">
+        <v>0.78</v>
+      </c>
+      <c r="N17">
+        <v>0.84</v>
+      </c>
+      <c r="O17">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.98163382437344504</v>
+      </c>
+      <c r="C18">
+        <v>0.89959839357429705</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.89</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H18">
+        <v>0.9</v>
+      </c>
+      <c r="I18">
+        <v>1123</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O18">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>0.87928065812129297</v>
+      </c>
+      <c r="C19">
+        <v>0.85006693440428305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.9</v>
+      </c>
+      <c r="I19">
+        <v>2241</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.85</v>
+      </c>
+      <c r="O19">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0.9</v>
+      </c>
+      <c r="G20">
+        <v>0.9</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>2241</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>0.86</v>
+      </c>
+      <c r="M20">
+        <v>0.85</v>
+      </c>
+      <c r="N20">
+        <v>0.85</v>
+      </c>
+      <c r="O20">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0.9</v>
+      </c>
+      <c r="G21">
+        <v>0.9</v>
+      </c>
+      <c r="H21">
+        <v>0.9</v>
+      </c>
+      <c r="I21">
+        <v>2241</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>0.86</v>
+      </c>
+      <c r="M21">
+        <v>0.85</v>
+      </c>
+      <c r="N21">
+        <v>0.85</v>
+      </c>
+      <c r="O21">
+        <v>2241</v>
       </c>
     </row>
   </sheetData>

--- a/Machine learning/Homework/Alzheimer Classification/6614450042_Report Alzhemer_Classification.xlsx
+++ b/Machine learning/Homework/Alzheimer Classification/6614450042_Report Alzhemer_Classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/GitHub/Python-For-Data-Science/Machine learning/Homework/Alzheimer Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF0465-3C28-4344-A108-2DEFD7AA703B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FE52F3-C623-404F-8957-C13B52BD9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{BDC30C81-DD47-45A5-9C52-331CEFC4DFD1}"/>
+    <workbookView xWindow="15160" yWindow="1380" windowWidth="15080" windowHeight="16780" activeTab="1" xr2:uid="{BDC30C81-DD47-45A5-9C52-331CEFC4DFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="non-resample" sheetId="2" r:id="rId1"/>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58D06A3-5F7F-AA4D-A774-40FFFBC7C637}">
   <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
